--- a/Validating_selection_scheme/Collect_bacterial_growth_curves/density_plating.xlsx
+++ b/Validating_selection_scheme/Collect_bacterial_growth_curves/density_plating.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakosterlitz/Dropbox/Pop3/Protocol/GitHub/Validating_selection_scheme/Collect_bacterial_densities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakosterlitz/Dropbox/Pop3/Protocol/GitHub/Validating_selection_scheme/collect_bacterial_growth_curves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE04CC3-C6DF-1A47-B86B-660CFF0F0399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B1D69E-DEF5-1642-9BE5-AD174EAD6784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27360" yWindow="2060" windowWidth="22240" windowHeight="17520" xr2:uid="{BA6A53D5-22B1-2644-B2A8-FE04CD7653CE}"/>
+    <workbookView xWindow="5720" yWindow="500" windowWidth="35640" windowHeight="13780" xr2:uid="{BA6A53D5-22B1-2644-B2A8-FE04CD7653CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
   <si>
     <t>Plate label</t>
   </si>
@@ -65,27 +65,128 @@
     <t>BK451</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>R</t>
+    <t>Replicate</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>D.R1.T0</t>
+  </si>
+  <si>
+    <t>D.R2.T0</t>
+  </si>
+  <si>
+    <t>D.R3.T0</t>
+  </si>
+  <si>
+    <t>R.R1.T0</t>
+  </si>
+  <si>
+    <t>R.R2.T0</t>
+  </si>
+  <si>
+    <t>R.R3.T0</t>
+  </si>
+  <si>
+    <t>D.R1.T1</t>
+  </si>
+  <si>
+    <t>D.R2.T1</t>
+  </si>
+  <si>
+    <t>D.R3.T1</t>
+  </si>
+  <si>
+    <t>R.R1.T1</t>
+  </si>
+  <si>
+    <t>R.R2.T1</t>
+  </si>
+  <si>
+    <t>R.R3.T1</t>
+  </si>
+  <si>
+    <t>D.R1.T2</t>
+  </si>
+  <si>
+    <t>D.R2.T2</t>
+  </si>
+  <si>
+    <t>D.R3.T2</t>
+  </si>
+  <si>
+    <t>R.R1.T2</t>
+  </si>
+  <si>
+    <t>R.R2.T2</t>
+  </si>
+  <si>
+    <t>R.R3.T2</t>
+  </si>
+  <si>
+    <t>D.R1.T3</t>
+  </si>
+  <si>
+    <t>D.R2.T3</t>
+  </si>
+  <si>
+    <t>D.R3.T3</t>
+  </si>
+  <si>
+    <t>R.R1.T3</t>
+  </si>
+  <si>
+    <t>R.R2.T3</t>
+  </si>
+  <si>
+    <t>R.R3.T3</t>
+  </si>
+  <si>
+    <t>D.R1.T4</t>
+  </si>
+  <si>
+    <t>D.R2.T4</t>
+  </si>
+  <si>
+    <t>D.R3.T4</t>
+  </si>
+  <si>
+    <t>R.R1.T4</t>
+  </si>
+  <si>
+    <t>R.R2.T4</t>
+  </si>
+  <si>
+    <t>R.R3.T4</t>
+  </si>
+  <si>
+    <t>D.R1.T5</t>
+  </si>
+  <si>
+    <t>D.R2.T5</t>
+  </si>
+  <si>
+    <t>D.R3.T5</t>
+  </si>
+  <si>
+    <t>R.R1.T5</t>
+  </si>
+  <si>
+    <t>R.R2.T5</t>
+  </si>
+  <si>
+    <t>R.R3.T5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF2600"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -256,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -265,15 +366,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -295,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -311,7 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -322,17 +420,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,197 +755,1083 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C1793A-1ECC-4844-95FA-B5E04952DB44}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="5"/>
-    <col min="2" max="4" width="10.83203125" style="3"/>
+    <col min="1" max="2" width="10.83203125" style="5"/>
+    <col min="3" max="6" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="4"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="4"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12">
+        <v>4</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="14">
         <v>10</v>
       </c>
-      <c r="C3" s="13">
-        <v>5</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="15">
-        <v>100</v>
-      </c>
-      <c r="F3" s="16">
-        <f t="shared" ref="F3:F5" si="0">E3*10^(C3+1)</f>
+      <c r="H3" s="15">
+        <f t="shared" ref="H3:H7" si="0">G3*10^(E3+1)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="18">
+        <v>4</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21">
+        <f t="shared" ref="H4" si="1">G4*10^(E4+1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0</v>
+      </c>
+      <c r="C5" s="17">
+        <v>2</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="18">
+        <v>4</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="20">
+        <v>10</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0</v>
+      </c>
+      <c r="C6" s="17">
+        <v>3</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="18">
+        <v>4</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="20">
+        <v>10</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" ref="H6" si="2">G6*10^(E6+1)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="18">
+        <v>4</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="20">
+        <v>10</v>
+      </c>
+      <c r="H7" s="21">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="18">
+        <v>4</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21">
+        <f>G8*10^(E8+1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="17">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="18">
+        <v>4</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="20">
+        <v>10</v>
+      </c>
+      <c r="H9" s="21">
+        <f t="shared" ref="H9:H10" si="3">G9*10^(E9+1)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="23">
+        <v>3</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="23">
+        <v>4</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="27">
+        <v>10</v>
+      </c>
+      <c r="H10" s="25">
+        <f t="shared" si="3"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="12">
+        <v>4</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="14">
+        <v>10</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" ref="H12:H15" si="4">G12*10^(E12+1)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17">
+        <v>2</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="18">
+        <v>4</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="20">
+        <v>10</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" si="4"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="17">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17">
+        <v>3</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="18">
+        <v>4</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="20">
+        <v>10</v>
+      </c>
+      <c r="H14" s="21">
+        <f t="shared" si="4"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="17">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18">
+        <v>1</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="18">
+        <v>4</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="20">
+        <v>10</v>
+      </c>
+      <c r="H15" s="21">
+        <f t="shared" si="4"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="17">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17">
+        <v>2</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="18">
+        <v>4</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="20">
+        <v>10</v>
+      </c>
+      <c r="H16" s="21">
+        <f t="shared" ref="H16:H17" si="5">G16*10^(E16+1)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="28">
+        <v>1</v>
+      </c>
+      <c r="C17" s="23">
+        <v>3</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="23">
+        <v>4</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="27">
+        <v>10</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" si="5"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="11">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="12">
+        <v>4</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="14">
+        <v>100</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" ref="H19:H22" si="6">G19*10^(E19+1)</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="17">
+        <v>2</v>
+      </c>
+      <c r="C20" s="17">
+        <v>2</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="18">
+        <v>4</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="20">
+        <v>100</v>
+      </c>
+      <c r="H20" s="21">
+        <f t="shared" si="6"/>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="17">
+        <v>2</v>
+      </c>
+      <c r="C21" s="17">
+        <v>3</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="18">
+        <v>4</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="20">
+        <v>100</v>
+      </c>
+      <c r="H21" s="21">
+        <f t="shared" si="6"/>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="17">
+        <v>2</v>
+      </c>
+      <c r="C22" s="18">
+        <v>1</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="18">
+        <v>4</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="20">
+        <v>100</v>
+      </c>
+      <c r="H22" s="21">
+        <f t="shared" si="6"/>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="17">
+        <v>2</v>
+      </c>
+      <c r="C23" s="17">
+        <v>2</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="18">
+        <v>4</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="20">
+        <v>100</v>
+      </c>
+      <c r="H23" s="21">
+        <f t="shared" ref="H23:H24" si="7">G23*10^(E23+1)</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="28">
+        <v>2</v>
+      </c>
+      <c r="C24" s="23">
+        <v>3</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="23">
+        <v>4</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="27">
+        <v>100</v>
+      </c>
+      <c r="H24" s="25">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="11">
+        <v>3</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="12">
+        <v>5</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="14">
+        <v>100</v>
+      </c>
+      <c r="H26" s="15">
+        <f t="shared" ref="H26:H31" si="8">G26*10^(E26+1)</f>
         <v>100000000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="19">
-        <v>6</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="21">
-        <v>10</v>
-      </c>
-      <c r="F4" s="22">
-        <f t="shared" si="0"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="17">
+        <v>3</v>
+      </c>
+      <c r="C27" s="17">
+        <v>2</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="18">
+        <v>5</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="20">
+        <v>100</v>
+      </c>
+      <c r="H27" s="21">
+        <f t="shared" si="8"/>
         <v>100000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="24">
-        <v>5</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="26">
-        <v>0</v>
-      </c>
-      <c r="F5" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="4"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="17">
+        <v>3</v>
+      </c>
+      <c r="C28" s="17">
+        <v>3</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="18">
+        <v>5</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="20">
+        <v>100</v>
+      </c>
+      <c r="H28" s="21">
+        <f t="shared" si="8"/>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="17">
+        <v>3</v>
+      </c>
+      <c r="C29" s="18">
+        <v>1</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="18">
+        <v>5</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="20">
+        <v>100</v>
+      </c>
+      <c r="H29" s="21">
+        <f t="shared" si="8"/>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="13">
-        <v>5</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="28">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <f>E7*10^(C7+1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="B30" s="17">
+        <v>3</v>
+      </c>
+      <c r="C30" s="17">
+        <v>2</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="18">
+        <v>5</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="20">
+        <v>100</v>
+      </c>
+      <c r="H30" s="21">
+        <f t="shared" si="8"/>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="19">
-        <v>5</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="21">
-        <v>100</v>
-      </c>
-      <c r="F8" s="22">
-        <f t="shared" ref="F8:F9" si="1">E8*10^(C8+1)</f>
+      <c r="B31" s="28">
+        <v>3</v>
+      </c>
+      <c r="C31" s="23">
+        <v>3</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="23">
+        <v>5</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="27">
+        <v>100</v>
+      </c>
+      <c r="H31" s="25">
+        <f t="shared" si="8"/>
         <v>100000000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+    <row r="32" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="11">
+        <v>4</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="12">
+        <v>5</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="14">
+        <v>100</v>
+      </c>
+      <c r="H33" s="15">
+        <f t="shared" ref="H33:H38" si="9">G33*10^(E33+1)</f>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="17">
+        <v>4</v>
+      </c>
+      <c r="C34" s="17">
+        <v>2</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="18">
+        <v>5</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="20">
+        <v>100</v>
+      </c>
+      <c r="H34" s="21">
+        <f t="shared" si="9"/>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="17">
+        <v>4</v>
+      </c>
+      <c r="C35" s="17">
+        <v>3</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="18">
+        <v>5</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="20">
+        <v>100</v>
+      </c>
+      <c r="H35" s="21">
+        <f t="shared" si="9"/>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="17">
+        <v>4</v>
+      </c>
+      <c r="C36" s="18">
+        <v>1</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="18">
+        <v>5</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="20">
+        <v>100</v>
+      </c>
+      <c r="H36" s="21">
+        <f t="shared" si="9"/>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="24">
-        <v>6</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="30">
-        <v>10</v>
-      </c>
-      <c r="F9" s="27">
-        <f t="shared" si="1"/>
+      <c r="B37" s="17">
+        <v>4</v>
+      </c>
+      <c r="C37" s="17">
+        <v>2</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="18">
+        <v>5</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="20">
+        <v>100</v>
+      </c>
+      <c r="H37" s="21">
+        <f t="shared" si="9"/>
         <v>100000000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D10" s="4"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D13" s="6"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D14" s="4"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
+    <row r="38" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="28">
+        <v>4</v>
+      </c>
+      <c r="C38" s="23">
+        <v>3</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="23">
+        <v>5</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="27">
+        <v>100</v>
+      </c>
+      <c r="H38" s="25">
+        <f t="shared" si="9"/>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="11">
+        <v>5</v>
+      </c>
+      <c r="C40" s="11">
+        <v>1</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="12">
+        <v>5</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="14">
+        <v>100</v>
+      </c>
+      <c r="H40" s="15">
+        <f t="shared" ref="H40:H45" si="10">G40*10^(E40+1)</f>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="17">
+        <v>5</v>
+      </c>
+      <c r="C41" s="17">
+        <v>2</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="18">
+        <v>5</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="20">
+        <v>100</v>
+      </c>
+      <c r="H41" s="21">
+        <f t="shared" si="10"/>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="17">
+        <v>5</v>
+      </c>
+      <c r="C42" s="17">
+        <v>3</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="18">
+        <v>5</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="20">
+        <v>100</v>
+      </c>
+      <c r="H42" s="21">
+        <f t="shared" si="10"/>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="17">
+        <v>5</v>
+      </c>
+      <c r="C43" s="18">
+        <v>1</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="18">
+        <v>5</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="20">
+        <v>100</v>
+      </c>
+      <c r="H43" s="21">
+        <f t="shared" si="10"/>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="17">
+        <v>5</v>
+      </c>
+      <c r="C44" s="17">
+        <v>2</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="18">
+        <v>5</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="20">
+        <v>100</v>
+      </c>
+      <c r="H44" s="21">
+        <f t="shared" si="10"/>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="28">
+        <v>5</v>
+      </c>
+      <c r="C45" s="23">
+        <v>3</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="23">
+        <v>5</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="27">
+        <v>100</v>
+      </c>
+      <c r="H45" s="25">
+        <f t="shared" si="10"/>
+        <v>100000000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Validating_selection_scheme/Collect_bacterial_growth_curves/density_plating.xlsx
+++ b/Validating_selection_scheme/Collect_bacterial_growth_curves/density_plating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakosterlitz/Dropbox/Pop3/Protocol/GitHub/Validating_selection_scheme/collect_bacterial_growth_curves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B1D69E-DEF5-1642-9BE5-AD174EAD6784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF73CA6A-3B78-C24F-AEA1-D2BD1E14FDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5720" yWindow="500" windowWidth="35640" windowHeight="13780" xr2:uid="{BA6A53D5-22B1-2644-B2A8-FE04CD7653CE}"/>
   </bookViews>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C1793A-1ECC-4844-95FA-B5E04952DB44}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:D45"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1835,6 +1835,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Validating_selection_scheme/Collect_bacterial_growth_curves/density_plating.xlsx
+++ b/Validating_selection_scheme/Collect_bacterial_growth_curves/density_plating.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakosterlitz/Dropbox/Pop3/Protocol/GitHub/Validating_selection_scheme/collect_bacterial_growth_curves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67BFE64-846A-5F4F-91F7-5EFAD5C0A29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FF6563-E24B-9944-A50A-D0F82433E943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28000" windowHeight="13780" xr2:uid="{BA6A53D5-22B1-2644-B2A8-FE04CD7653CE}"/>
   </bookViews>
@@ -659,10 +659,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C1793A-1ECC-4844-95FA-B5E04952DB44}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="150" zoomScaleNormal="230" workbookViewId="0">
+      <selection sqref="A1:L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3457,6 +3460,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="88" fitToHeight="3" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>